--- a/Proyectos/Iteración #3/docs/Extras/Modelo_Relacional.xlsx
+++ b/Proyectos/Iteración #3/docs/Extras/Modelo_Relacional.xlsx
@@ -1,35 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\2023-1\Sistrans\Sistrans-Iteracion2\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/c_munoza_uniandes_edu_co/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E788076A-46DA-4769-8705-E8E315F50FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15D523EE-6A3B-46A3-8E01-8C63EE62CE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla Relación" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="121">
   <si>
     <t>Relación</t>
   </si>
   <si>
+    <t>Nombre de la relación</t>
+  </si>
+  <si>
     <t>At 1</t>
   </si>
   <si>
@@ -42,16 +56,43 @@
     <t>At 4</t>
   </si>
   <si>
+    <t>Atributos/Dominio</t>
+  </si>
+  <si>
+    <t>CKs</t>
+  </si>
+  <si>
     <t>Restricciones</t>
   </si>
   <si>
+    <t>CK1</t>
+  </si>
+  <si>
+    <t>('Y', 'N')</t>
+  </si>
+  <si>
     <t>Tuplas</t>
   </si>
   <si>
-    <t>Atributos/Dominio</t>
-  </si>
-  <si>
-    <t>Nombre de la relación</t>
+    <t>CK2</t>
+  </si>
+  <si>
+    <t>('privado', 'compartido')</t>
+  </si>
+  <si>
+    <t>CK3</t>
+  </si>
+  <si>
+    <t>('individual', 'compatida')</t>
+  </si>
+  <si>
+    <t>OperadorUsuario</t>
+  </si>
+  <si>
+    <t>CK5</t>
+  </si>
+  <si>
+    <t>('profesor', 'empleado', 'egresado', 'estudiante', 'padre de estudiante', 'externo')</t>
   </si>
   <si>
     <t>identificacion</t>
@@ -63,10 +104,43 @@
     <t>tipoVinculo</t>
   </si>
   <si>
+    <t>correoElectronico</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>CK6</t>
+  </si>
+  <si>
+    <t>('estándar', 'semisuite', 'suites')</t>
+  </si>
+  <si>
+    <t>PK, UA</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>NN, CK5</t>
+  </si>
+  <si>
+    <t>CK7</t>
+  </si>
+  <si>
+    <t>('salaEsparcimiento', 'tvCable', 'gimnasio', 'salaEstudio', 'wifi', 'baniera', 'sala', 'yacuzzi', 'menaje', 'luz', 'telefono', 'cocina', 'agua')</t>
+  </si>
+  <si>
+    <t>CK8</t>
+  </si>
+  <si>
+    <t>(HabitacionHuesped', 'ApartamentoAlquiler', 'ViviendaTemporal', 'HabitacionHotel', 'HabitacionViviendaUniversitaria', 'HabitacionHostal')</t>
+  </si>
+  <si>
     <t>HabitacionHuesped</t>
   </si>
   <si>
-    <t>OperadorUsuario</t>
+    <t>idAlojamiento</t>
   </si>
   <si>
     <t>comidas</t>
@@ -81,148 +155,42 @@
     <t>dtoMesExtra</t>
   </si>
   <si>
-    <t>ApartamentoAlquiler</t>
-  </si>
-  <si>
-    <t>servPublico</t>
-  </si>
-  <si>
-    <t>administracion</t>
-  </si>
-  <si>
-    <t>ViviendaTemporal</t>
-  </si>
-  <si>
-    <t>numeroHabitaciones</t>
-  </si>
-  <si>
-    <t>caracSeguro</t>
-  </si>
-  <si>
-    <t>diasAlquilado</t>
-  </si>
-  <si>
-    <t>ubicacion</t>
-  </si>
-  <si>
-    <t>duracionMin</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Hotel</t>
-  </si>
-  <si>
-    <t>Reserva</t>
-  </si>
-  <si>
-    <t>fechaIni</t>
-  </si>
-  <si>
-    <t>fechaFin</t>
-  </si>
-  <si>
-    <t>Hostal</t>
-  </si>
-  <si>
-    <t>HabitaciónHotel</t>
-  </si>
-  <si>
-    <t>HabitaciónVivUniversitaria</t>
-  </si>
-  <si>
-    <t>HabitaciónHostal</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>propietario</t>
-  </si>
-  <si>
-    <t>NN</t>
-  </si>
-  <si>
-    <t>identificacionCliente</t>
-  </si>
-  <si>
-    <t>idAlojamiento</t>
-  </si>
-  <si>
-    <t>restaurante</t>
-  </si>
-  <si>
-    <t>piscina</t>
-  </si>
-  <si>
-    <t>horaCierreRecepción</t>
-  </si>
-  <si>
-    <t>horaAperturaRecepción</t>
-  </si>
-  <si>
-    <t>regComercio</t>
-  </si>
-  <si>
-    <t>tipoHabitación</t>
-  </si>
-  <si>
-    <t>tamaño</t>
-  </si>
-  <si>
-    <t>CKs</t>
-  </si>
-  <si>
-    <t>CK1</t>
+    <t>IDENTIFICACIONOPERADORUSUARIO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PK, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Alojamiento.id</t>
+    </r>
   </si>
   <si>
     <t>NN, CK &gt;= 0</t>
   </si>
   <si>
-    <t>NN, CK1</t>
-  </si>
-  <si>
-    <t>NN, CK &gt; 0</t>
+    <t>NN, CK2</t>
+  </si>
+  <si>
+    <t>NN, CK3</t>
   </si>
   <si>
     <t>NN, 100 &gt;= CK &gt; 0</t>
-  </si>
-  <si>
-    <t>NN, CK2</t>
-  </si>
-  <si>
-    <t>CK2</t>
-  </si>
-  <si>
-    <t>('privado', 'compartido')</t>
-  </si>
-  <si>
-    <t>CK3</t>
-  </si>
-  <si>
-    <t>('individual', 'compatida')</t>
-  </si>
-  <si>
-    <t>NN, CK3</t>
-  </si>
-  <si>
-    <t>NN, FKHotel.regComercio</t>
-  </si>
-  <si>
-    <t>NN, CK &lt;= 30</t>
-  </si>
-  <si>
-    <t>CK5</t>
-  </si>
-  <si>
-    <t>('profesor', 'empleado', 'egresado', 'estudiante', 'padre de estudiante', 'externo')</t>
-  </si>
-  <si>
-    <t>PK, SA</t>
-  </si>
-  <si>
-    <t>NN, CK5</t>
   </si>
   <si>
     <r>
@@ -248,6 +216,101 @@
     </r>
   </si>
   <si>
+    <t>ApartamentoAlquiler</t>
+  </si>
+  <si>
+    <t>servPublico</t>
+  </si>
+  <si>
+    <t>administracion</t>
+  </si>
+  <si>
+    <t>NN, CK1</t>
+  </si>
+  <si>
+    <t>Restricciones : El apartamento solo podra ser alquilado por un propietario que tenga algun tipo de vinculo con la comunidad uniandina.</t>
+  </si>
+  <si>
+    <t>ViviendaTemporal</t>
+  </si>
+  <si>
+    <t>numeroHabitaciones</t>
+  </si>
+  <si>
+    <t>PRECIOSEGUROARRENDAMIENTO</t>
+  </si>
+  <si>
+    <t>caracSeguro</t>
+  </si>
+  <si>
+    <t>diasAlquilado</t>
+  </si>
+  <si>
+    <t>propietario</t>
+  </si>
+  <si>
+    <t>NN, CK &gt; 0</t>
+  </si>
+  <si>
+    <t>NN, CK &lt;= 30</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>ultimaFechaReserva</t>
+  </si>
+  <si>
+    <t>Reserva</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>fechaIni</t>
+  </si>
+  <si>
+    <t>fechaFin</t>
+  </si>
+  <si>
+    <t>identificacionCliente</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>IdGrupo</t>
+  </si>
+  <si>
+    <t>Ganancia</t>
+  </si>
+  <si>
+    <t>PK, SA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NN, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cliente.Identificacion</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">NN, </t>
     </r>
@@ -271,173 +334,145 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">NN, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>FK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cliente.Identificacion</t>
-    </r>
-  </si>
-  <si>
-    <t>PK, UA</t>
+    <t>Alojamiento</t>
+  </si>
+  <si>
+    <t>ubicacion</t>
+  </si>
+  <si>
+    <t>duracionMin</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Estatus</t>
+  </si>
+  <si>
+    <t>TipoAlojamiento</t>
+  </si>
+  <si>
+    <t>NN,</t>
+  </si>
+  <si>
+    <t>NN, CK &gt;0</t>
+  </si>
+  <si>
+    <t>NN, CK8</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>regComercio</t>
+  </si>
+  <si>
+    <t>NIT</t>
+  </si>
+  <si>
+    <t>restaurante</t>
+  </si>
+  <si>
+    <t>parqueadero</t>
+  </si>
+  <si>
+    <t>piscina</t>
+  </si>
+  <si>
+    <t>HabitaciónHotel</t>
+  </si>
+  <si>
+    <t>tipoHabitación</t>
+  </si>
+  <si>
+    <t>tamaño</t>
+  </si>
+  <si>
+    <t>idHotel</t>
+  </si>
+  <si>
+    <t>PK, FKAlojamiento.id</t>
+  </si>
+  <si>
+    <t>NN, CK6</t>
+  </si>
+  <si>
+    <t>NN, FKHotel.regComercio</t>
+  </si>
+  <si>
+    <t>ViviendaUniversitaria</t>
+  </si>
+  <si>
+    <t>precioSalaEstudio</t>
+  </si>
+  <si>
+    <t>precioSalaEsparcimiento</t>
+  </si>
+  <si>
+    <t>precioGimnasio</t>
+  </si>
+  <si>
+    <t>Restaurante</t>
+  </si>
+  <si>
+    <t>NN, CK(&gt;=0)</t>
+  </si>
+  <si>
+    <t>HabitaciónVivUniversitaria</t>
   </si>
   <si>
     <t>capacidad</t>
   </si>
   <si>
+    <t>idViviendaUniversitaria</t>
+  </si>
+  <si>
+    <t>CK(&gt;0)</t>
+  </si>
+  <si>
     <t>NN, FKAdmViviendaUniversitaria.regComercio</t>
   </si>
   <si>
+    <t>Hostal</t>
+  </si>
+  <si>
+    <t>horaAperturaRecepción</t>
+  </si>
+  <si>
+    <t>horaCierreRecepción</t>
+  </si>
+  <si>
+    <t>HabitaciónHostal</t>
+  </si>
+  <si>
+    <t>aforo</t>
+  </si>
+  <si>
+    <t>idhostal</t>
+  </si>
+  <si>
+    <t>CK(&gt;=0)</t>
+  </si>
+  <si>
+    <t>NN, FKHostal.regComercio</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
     <t>tipo</t>
   </si>
   <si>
-    <t>aforo</t>
-  </si>
-  <si>
-    <t>NN, FKHostal.regComercio</t>
-  </si>
-  <si>
-    <t>Alojamiento</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PK, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>FK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Alojamiento.id</t>
-    </r>
-  </si>
-  <si>
-    <t>PK, FKAlojamiento.id</t>
-  </si>
-  <si>
-    <t>parqueadero</t>
-  </si>
-  <si>
-    <t>CK(&gt;0)</t>
-  </si>
-  <si>
-    <t>CK(&gt;=0)</t>
-  </si>
-  <si>
-    <t>telefono</t>
-  </si>
-  <si>
-    <t>correoElectronico</t>
-  </si>
-  <si>
-    <t>CK6</t>
-  </si>
-  <si>
-    <t>('estándar', 'semisuite', 'suites')</t>
-  </si>
-  <si>
-    <t>NN, CK6</t>
-  </si>
-  <si>
-    <t>precioSalaEstudio</t>
-  </si>
-  <si>
-    <t>precioSalaEsparcimiento</t>
-  </si>
-  <si>
-    <t>precioGimnasio</t>
-  </si>
-  <si>
-    <t>NN, CK(&gt;=0)</t>
-  </si>
-  <si>
-    <t>CK7</t>
-  </si>
-  <si>
-    <t>Restricciones : El apartamento solo podra ser alquilado por un propietario que tenga algun tipo de vinculo con la comunidad uniandina.</t>
-  </si>
-  <si>
-    <t>IDENTIFICACIONOPERADORUSUARIO</t>
-  </si>
-  <si>
-    <t>('Y', 'N')</t>
-  </si>
-  <si>
-    <t>PRECIOSEGUROARRENDAMIENTO</t>
-  </si>
-  <si>
-    <t>ultimaFechaReserva</t>
-  </si>
-  <si>
-    <t>Costo</t>
-  </si>
-  <si>
-    <t>NN, CK &gt;0</t>
-  </si>
-  <si>
-    <t>NN,</t>
-  </si>
-  <si>
-    <t>NIT</t>
-  </si>
-  <si>
-    <t>idHotel</t>
-  </si>
-  <si>
-    <t>ViviendaUniversitaria</t>
-  </si>
-  <si>
-    <t>Restaurante</t>
-  </si>
-  <si>
-    <t>idViviendaUniversitaria</t>
-  </si>
-  <si>
-    <t>idhostal</t>
-  </si>
-  <si>
-    <t>Servicio</t>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>NN,CK 7</t>
   </si>
   <si>
     <t>AlojamientoServicio</t>
   </si>
   <si>
-    <t>('salaEsparcimiento', 'tvCable', 'gimnasio', 'salaEstudio', 'wifi', 'baniera', 'sala', 'yacuzzi', 'menaje', 'luz', 'telefono', 'cocina', 'agua')</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
     <t>idServicio</t>
-  </si>
-  <si>
-    <t>NN,CK 7</t>
   </si>
   <si>
     <t>FKServicio.id</t>
@@ -450,7 +485,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -964,200 +999,206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2"/>
-    <col min="3" max="3" width="44.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="41.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="2"/>
-    <col min="7" max="7" width="45.5546875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="25.6640625" style="2"/>
-    <col min="10" max="10" width="34.5546875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="25.6640625" style="2"/>
+    <col min="1" max="2" width="25.7109375" style="2"/>
+    <col min="3" max="3" width="44.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="2"/>
+    <col min="7" max="7" width="45.5703125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="25.7109375" style="2"/>
+    <col min="10" max="10" width="45.85546875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="25.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="30" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="30" customHeight="1" thickBot="1">
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>48</v>
-      </c>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="2:10" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" s="5" customFormat="1" ht="30" customHeight="1">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="G4" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="30" customHeight="1">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="G5" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="30" customHeight="1">
       <c r="I6" s="16" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="55.15" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="40.9" customHeight="1">
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="37.15" customHeight="1">
       <c r="B9" s="4" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="31.9" customHeight="1">
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-    </row>
-    <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="30" customHeight="1">
       <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="30" customHeight="1">
       <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="30" customHeight="1">
+      <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="30" customHeight="1">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1165,96 +1206,96 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="30" customHeight="1">
       <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="30" customHeight="1">
       <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="30" customHeight="1">
+      <c r="B19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="30" customHeight="1">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="30" customHeight="1">
       <c r="B21" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="30" customHeight="1">
       <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="30" customHeight="1">
       <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="30" customHeight="1">
+      <c r="B24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="C24" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="30" customHeight="1">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1262,53 +1303,53 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="30" customHeight="1">
       <c r="B27" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="30" customHeight="1">
       <c r="B28" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="30" customHeight="1">
       <c r="B29" s="4" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="30" customHeight="1">
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="6"/>
@@ -1316,94 +1357,136 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" ht="30" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="30" customHeight="1">
       <c r="B33" s="3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="30" customHeight="1">
       <c r="B34" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="30" customHeight="1">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-    </row>
-    <row r="37" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="37" spans="2:13" ht="30" customHeight="1">
       <c r="B37" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="30" customHeight="1">
+      <c r="B38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="30" customHeight="1">
       <c r="B39" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="30" customHeight="1">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-    </row>
-    <row r="42" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="42" spans="2:13" ht="30" customHeight="1">
       <c r="B42" s="1" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -1417,47 +1500,47 @@
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" ht="30" customHeight="1">
       <c r="B43" s="3" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="30" customHeight="1">
       <c r="B44" s="4" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="30" customHeight="1">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1470,105 +1553,105 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
     </row>
-    <row r="47" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" ht="30" customHeight="1">
       <c r="B47" s="1" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" ht="30" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="30" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="30" customHeight="1">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="52" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="30" customHeight="1">
       <c r="B52" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="30" customHeight="1">
       <c r="B53" s="3" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="30" customHeight="1">
+      <c r="B54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="F54" s="4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="30" customHeight="1">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
@@ -1577,52 +1660,52 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="57" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="30" customHeight="1">
       <c r="B57" s="1" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
     </row>
-    <row r="58" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="30" customHeight="1">
       <c r="B58" s="3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="E58" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="51" customHeight="1">
+      <c r="B59" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="59" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="E59" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="30" customHeight="1">
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="62" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="30" customHeight="1">
       <c r="B62" s="1" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -1631,139 +1714,139 @@
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="30" customHeight="1">
       <c r="B63" s="3" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="30" customHeight="1">
       <c r="B64" s="4" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="30" customHeight="1">
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
     </row>
-    <row r="67" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" ht="30" customHeight="1">
       <c r="B67" s="1" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
     </row>
-    <row r="68" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" ht="30" customHeight="1">
       <c r="B68" s="3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="30" customHeight="1">
       <c r="B69" s="11" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="30" customHeight="1">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
     </row>
-    <row r="73" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" ht="30" customHeight="1">
       <c r="B73" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" ht="30" customHeight="1">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="30" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="30" customHeight="1">
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" spans="2:6" ht="84.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" ht="84.6" customHeight="1"/>
+    <row r="78" spans="2:6" ht="30" customHeight="1">
       <c r="B78" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" ht="30" customHeight="1">
       <c r="B79" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="30" customHeight="1">
       <c r="B80" s="11" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="30" customHeight="1">
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
